--- a/Training/UnseenData/Found Lenses.xlsx
+++ b/Training/UnseenData/Found Lenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annarienbester/git/gravitationallenses/Training/UnseenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36741886-70AA-5946-AE2D-397992E36C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C7C0B9-554E-084F-886C-774D59387B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36720" yWindow="-3140" windowWidth="42640" windowHeight="20360" activeTab="1" xr2:uid="{4CFF3A6A-89EA-DF4F-8945-006140BC60F8}"/>
+    <workbookView xWindow="44700" yWindow="-2860" windowWidth="25460" windowHeight="20360" activeTab="1" xr2:uid="{4CFF3A6A-89EA-DF4F-8945-006140BC60F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Predicted_Grouped_No Duplicates" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="454">
   <si>
     <t>Run 0</t>
   </si>
@@ -1376,12 +1376,42 @@
   </si>
   <si>
     <t>Found Three Time</t>
+  </si>
+  <si>
+    <t>PAPER_TILE</t>
+  </si>
+  <si>
+    <t>RIGHT ASCENSION</t>
+  </si>
+  <si>
+    <t>INDICATOR</t>
+  </si>
+  <si>
+    <t>DECLINATION</t>
+  </si>
+  <si>
+    <t>ABS(DECLINATION)</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>How Many Times was it found</t>
+  </si>
+  <si>
+    <t>DESJ0011-4614</t>
+  </si>
+  <si>
+    <t>D17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1442,7 +1472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1450,6 +1480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1875,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A926A4EB-8DE8-E542-B4FB-0FB445E369EE}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1888,9 +1919,13 @@
     <col min="4" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -1910,7 +1945,30 @@
         <v>410</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L2" t="s">
+        <v>447</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="O2" t="s">
+        <v>450</v>
+      </c>
+      <c r="P2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1929,8 +1987,11 @@
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1949,8 +2010,11 @@
       <c r="G4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1969,8 +2033,11 @@
       <c r="G5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1986,8 +2053,11 @@
       <c r="G6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2003,8 +2073,11 @@
       <c r="G7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2020,8 +2093,11 @@
       <c r="G8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2034,8 +2110,11 @@
       <c r="G9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2045,8 +2124,11 @@
       <c r="G10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2056,8 +2138,11 @@
       <c r="G11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2067,8 +2152,11 @@
       <c r="G12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2078,8 +2166,11 @@
       <c r="G13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -2089,29 +2180,41 @@
       <c r="G14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -2135,8 +2238,11 @@
         <f>COUNTA(G3:G17)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -2144,8 +2250,11 @@
         <f>SUM(C18:G18)</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -2153,134 +2262,209 @@
         <f>IF(G19=A46,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I29" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I30" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I31" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I32" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I33" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I34" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I35" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I36" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I37" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I38" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I39" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I40" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I41" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I42" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I43" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f>COUNTA(A3:A44)</f>
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2288,10 +2472,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0F817E-5782-DA45-90A4-3804A94EEE37}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2301,9 +2485,15 @@
     <col min="4" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -2323,7 +2513,30 @@
         <v>410</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L2" t="s">
+        <v>447</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="O2" t="s">
+        <v>450</v>
+      </c>
+      <c r="P2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2342,8 +2555,32 @@
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="K3">
+        <v>2.9729830000000002</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>-46.238663000000003</v>
+      </c>
+      <c r="N3">
+        <v>46.238663000000003</v>
+      </c>
+      <c r="O3" t="s">
+        <v>453</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2362,8 +2599,11 @@
       <c r="G4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2382,8 +2622,11 @@
       <c r="G5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2399,8 +2642,11 @@
       <c r="G6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2416,8 +2662,11 @@
       <c r="G7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2433,8 +2682,11 @@
       <c r="G8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2450,8 +2702,11 @@
       <c r="G9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2467,8 +2722,11 @@
       <c r="G10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2484,8 +2742,11 @@
       <c r="G11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2498,8 +2759,11 @@
       <c r="G12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2509,8 +2773,11 @@
       <c r="G13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2520,8 +2787,11 @@
       <c r="G14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2531,8 +2801,11 @@
       <c r="G15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2542,8 +2815,11 @@
       <c r="G16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2553,8 +2829,11 @@
       <c r="G17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2564,8 +2843,11 @@
       <c r="G18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2575,8 +2857,11 @@
       <c r="G19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2586,37 +2871,52 @@
       <c r="G20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2640,8 +2940,11 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2649,189 +2952,303 @@
         <f>SUM(C25:G25)</f>
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I57" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I59" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>368</v>
+      </c>
+      <c r="I63" t="s">
         <v>368</v>
       </c>
     </row>

--- a/Training/UnseenData/Found Lenses.xlsx
+++ b/Training/UnseenData/Found Lenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annarienbester/git/gravitationallenses/Training/UnseenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C7C0B9-554E-084F-886C-774D59387B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24C1683-6638-8E47-BAC2-BE40B7CCAB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44700" yWindow="-2860" windowWidth="25460" windowHeight="20360" activeTab="1" xr2:uid="{4CFF3A6A-89EA-DF4F-8945-006140BC60F8}"/>
+    <workbookView xWindow="28800" yWindow="-3600" windowWidth="18980" windowHeight="21600" xr2:uid="{4CFF3A6A-89EA-DF4F-8945-006140BC60F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Predicted_Grouped_No Duplicates" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3209" uniqueCount="611">
   <si>
     <t>Run 0</t>
   </si>
@@ -1403,14 +1403,486 @@
   </si>
   <si>
     <t>D17</t>
+  </si>
+  <si>
+    <t>HSCJ2208+0206</t>
+  </si>
+  <si>
+    <t>Jae20</t>
+  </si>
+  <si>
+    <t>HSCJ2233−0019</t>
+  </si>
+  <si>
+    <t>HSCJ224201+022810</t>
+  </si>
+  <si>
+    <t>W18</t>
+  </si>
+  <si>
+    <t>DESJ0023-4923</t>
+  </si>
+  <si>
+    <t>SA7m</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>HSCJ0159−0358</t>
+  </si>
+  <si>
+    <t>DESJ0031-4403</t>
+  </si>
+  <si>
+    <t>SA21G</t>
+  </si>
+  <si>
+    <t>HSCJ2213+0056</t>
+  </si>
+  <si>
+    <t>HSCJ0239−0134K</t>
+  </si>
+  <si>
+    <t>DESJ0008-5503</t>
+  </si>
+  <si>
+    <t>DESJ0025-4133</t>
+  </si>
+  <si>
+    <t>SA41</t>
+  </si>
+  <si>
+    <t>HSCJ2243−0004</t>
+  </si>
+  <si>
+    <t>HSCJ0233−0328</t>
+  </si>
+  <si>
+    <t>HSCJ0211−0343†</t>
+  </si>
+  <si>
+    <t>SDSS</t>
+  </si>
+  <si>
+    <t>St13</t>
+  </si>
+  <si>
+    <t>HSCJ2306+0225D</t>
+  </si>
+  <si>
+    <t>SA125</t>
+  </si>
+  <si>
+    <t>DESJ0006-4208</t>
+  </si>
+  <si>
+    <t>HSCJ2319+0038</t>
+  </si>
+  <si>
+    <t>DESJ0035-5130</t>
+  </si>
+  <si>
+    <t>SA32</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>HSCJ230658+022543</t>
+  </si>
+  <si>
+    <t>HSCJ0032+0100</t>
+  </si>
+  <si>
+    <t>SA55</t>
+  </si>
+  <si>
+    <t>DESJ0313-3610</t>
+  </si>
+  <si>
+    <t>J19</t>
+  </si>
+  <si>
+    <t>0009+2455</t>
+  </si>
+  <si>
+    <t>F08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16_DES0011-4623 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22_DES0021-4040 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25_DES0020-5040 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">265_DES0034+0209 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">266_DES0108+0126 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">268_DES0158-0416 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">283_DES0223-0333 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">38_DES0032-5457 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">42_DES0035-5123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">442_DES2211+0001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">448_DES2214+0043 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">449_DES2214+0126 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">549_DES0203-0958 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">561_DES0212-0416 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">579_DES0219-1041 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">742_DES0011-4623 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">440_DES2208+0209 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">461_DES2234+0001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">162_DES2242+0209 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17_DES0011-4623 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">563_DES0212-0750 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30_DES0025-4123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">468_DES2242+0001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">751_DES0100-0707 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27_DES0023-4914 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">473_DES2305+0209 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">667_DES2214+0126 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">477_DES2319+0043 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">41_DES0035-5123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">879_DES2242+0209 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79_DES2305+0209 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">211_DES0312-3623 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">264_DES0031+0043 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">270_DES0201-0416 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">274_DES0212-0333 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">292_DES0232-0333 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31_DES0025-4123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5_DES0006-4206 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">690_DES0000+0209 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">781_DES0100-0707 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">35_DES0030-4414 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">583_DES0222-1041 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">574_DES0216-1041 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">598_DES0232-0333 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">43_DES0035-5123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">208_DES0212-2415 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">260_DES0002+0043 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">284_DES0223-0333 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">564_DES0213-0541 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">278_DES0218-0458 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">288_DES0231-0207 </t>
+  </si>
+  <si>
+    <t>DESJ0213-2413</t>
+  </si>
+  <si>
+    <t>DESJ0021-4040</t>
+  </si>
+  <si>
+    <t>DESJ0021-5028</t>
+  </si>
+  <si>
+    <t>HSCJ0003+0054</t>
+  </si>
+  <si>
+    <t>HSCJ0034+0225C</t>
+  </si>
+  <si>
+    <t>HSCJ0107+0117†D</t>
+  </si>
+  <si>
+    <t>HSCJ0156−0424</t>
+  </si>
+  <si>
+    <t>HSCJ0218−0515D</t>
+  </si>
+  <si>
+    <t>HSCJ0224−0346D</t>
+  </si>
+  <si>
+    <t>HSCJ0224−0336XC</t>
+  </si>
+  <si>
+    <t>HSCJ0230−0159</t>
+  </si>
+  <si>
+    <t>DESJ0033-5445</t>
+  </si>
+  <si>
+    <t>HSCJ2212−0008D</t>
+  </si>
+  <si>
+    <t>HSCJ2214+0110D</t>
+  </si>
+  <si>
+    <t>SA19</t>
+  </si>
+  <si>
+    <t>SA23G</t>
+  </si>
+  <si>
+    <t>SA37</t>
+  </si>
+  <si>
+    <t>J182003535</t>
+  </si>
+  <si>
+    <t>Number of 1's:</t>
+  </si>
+  <si>
+    <t>Number of 2's:</t>
+  </si>
+  <si>
+    <t>Number of 3's:</t>
+  </si>
+  <si>
+    <t>Number of 4's:</t>
+  </si>
+  <si>
+    <t>Number of 5's:</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>SA22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0008-5457 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0011-4623 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES2242+0209 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0212-2415 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0312-3623 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0021-4040 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0020-5040 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0002+0043 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0031+0043 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0034+0209 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0108+0126 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0158-0416 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0023-4914 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0201-0416 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0212-0333 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0218-0458 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0223-0333 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0231-0207 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0232-0333 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0239-0124 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0025-4123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0030-4414 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0032-5457 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0035-5123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES2208+0209 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES2211+0001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES2214+0043 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES2214+0126 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES2234+0001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES2242+0001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES2305+0209 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES2319+0043 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0006-4206 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0203-0958 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0212-0416 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0212-0750 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0213-0541 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0216-1041 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0219-1041 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0222-1041 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0000+0209 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES0100-0707 </t>
+  </si>
+  <si>
+    <t>FOLDER NAME</t>
+  </si>
+  <si>
+    <t>OBJECT ID</t>
+  </si>
+  <si>
+    <t>DES NAME</t>
+  </si>
+  <si>
+    <t>Reference #</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1429,7 +1901,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1445,6 +1917,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1472,7 +1956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1481,6 +1965,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1906,26 +2402,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A926A4EB-8DE8-E542-B4FB-0FB445E369EE}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="Q9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W43" sqref="V43:W43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -1945,276 +2451,975 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J2" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="I2" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="O2" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="P2" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="U2" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>398</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>538</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>534</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+      <c r="G3" t="s">
+        <v>507</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="12">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="M3" s="7">
+        <v>2.9729830000000002</v>
+      </c>
+      <c r="N3" s="12">
+        <f t="shared" ref="N3:N44" si="0">IF(O3&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="7">
+        <v>-46.238663000000003</v>
+      </c>
+      <c r="P3" s="11">
+        <f t="shared" ref="P3:P44" si="1">ABS(O3)</f>
+        <v>46.238663000000003</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="V3" s="17">
+        <v>2.9729830000000002</v>
+      </c>
+      <c r="W3" s="17">
+        <v>-46.238663000000003</v>
+      </c>
+      <c r="X3" s="8">
+        <f>VLOOKUP(Q3, U46:V54, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>490</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>536</v>
       </c>
       <c r="E4" t="s">
-        <v>301</v>
+        <v>535</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
+        <v>522</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="J4" s="12">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="M4" s="7">
+        <v>5.9334790000000002</v>
+      </c>
+      <c r="N4" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O4" s="7">
+        <v>-49.391714</v>
+      </c>
+      <c r="P4" s="11">
+        <f t="shared" si="1"/>
+        <v>49.391714</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="V4" s="17">
+        <v>5.9334790000000002</v>
+      </c>
+      <c r="W4" s="17">
+        <v>-49.391714</v>
+      </c>
+      <c r="X4" s="8">
+        <f>VLOOKUP(Q4, U46:V54, 2, FALSE)</f>
         <v>2</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Y4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>491</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>539</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>530</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>523</v>
       </c>
       <c r="G5" t="s">
+        <v>520</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="J5" s="12">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="M5" s="7">
+        <v>6.4912650000000003</v>
+      </c>
+      <c r="N5" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <v>-41.555826000000003</v>
+      </c>
+      <c r="P5" s="11">
+        <f t="shared" si="1"/>
+        <v>41.555826000000003</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="R5">
         <v>5</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="U5" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="V5" s="17">
+        <v>6.4912650000000003</v>
+      </c>
+      <c r="W5" s="17">
+        <v>-41.555826000000003</v>
+      </c>
+      <c r="X5" s="8">
+        <f>VLOOKUP(Q5, U46:V54, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>326</v>
+        <v>492</v>
       </c>
       <c r="D6" t="s">
-        <v>309</v>
+        <v>403</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>524</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="J6" s="12">
+        <v>41</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="M6" s="7">
+        <v>8.8458419999999993</v>
+      </c>
+      <c r="N6" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <v>-51.506618000000003</v>
+      </c>
+      <c r="P6" s="11">
+        <f t="shared" si="1"/>
+        <v>51.506618000000003</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="V6" s="17">
+        <v>8.8458419999999993</v>
+      </c>
+      <c r="W6" s="17">
+        <v>-51.506618000000003</v>
+      </c>
+      <c r="X6" s="8">
+        <f>VLOOKUP(Q6, U46:V54, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>287</v>
+        <v>493</v>
       </c>
       <c r="D7" t="s">
-        <v>262</v>
+        <v>529</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>526</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="J7" s="12">
+        <v>751</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="M7">
+        <v>14.703916666666666</v>
+      </c>
+      <c r="N7" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="7">
+        <v>-7.3657499999999994</v>
+      </c>
+      <c r="P7" s="11">
+        <f t="shared" si="1"/>
+        <v>7.3657499999999994</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="V7" s="17">
+        <v>14.703916666666666</v>
+      </c>
+      <c r="W7" s="17">
+        <v>-7.3657499999999994</v>
+      </c>
+      <c r="X7" s="8">
+        <f>VLOOKUP(Q7, U46:V54, 2, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>299</v>
+        <v>494</v>
       </c>
       <c r="D8" t="s">
-        <v>361</v>
+        <v>537</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>527</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="J8" s="12">
+        <v>563</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="M8">
+        <v>33.352166666666669</v>
+      </c>
+      <c r="N8" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>-7.7318944444444444</v>
+      </c>
+      <c r="P8" s="11">
+        <f t="shared" si="1"/>
+        <v>7.7318944444444444</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="V8" s="17">
+        <v>33.352166666666669</v>
+      </c>
+      <c r="W8" s="17">
+        <v>-7.7318944444444444</v>
+      </c>
+      <c r="X8" s="8">
+        <f>VLOOKUP(Q8, U46:V54, 2, FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>300</v>
+        <v>496</v>
       </c>
       <c r="D9" t="s">
-        <v>382</v>
+        <v>531</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="J9" s="12">
+        <v>211</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="M9">
+        <v>48.405999999999999</v>
+      </c>
+      <c r="N9" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>-36.177700000000002</v>
+      </c>
+      <c r="P9" s="11">
+        <f t="shared" si="1"/>
+        <v>36.177700000000002</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="V9" s="17">
+        <v>48.405999999999999</v>
+      </c>
+      <c r="W9" s="17">
+        <v>-36.177700000000002</v>
+      </c>
+      <c r="X9" s="8">
+        <f>VLOOKUP(Q9, U46:V54, 2, FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>498</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="J10" s="12">
+        <v>440</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="M10">
+        <v>332.24990000000003</v>
+      </c>
+      <c r="N10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.1152000000000002</v>
+      </c>
+      <c r="P10" s="11">
+        <f t="shared" si="1"/>
+        <v>2.1152000000000002</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="V10" s="17">
+        <v>332.24990000000003</v>
+      </c>
+      <c r="W10" s="17">
+        <v>2.1152000000000002</v>
+      </c>
+      <c r="X10" s="8">
+        <f>VLOOKUP(Q10, U46:V54, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>499</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="J11" s="12">
+        <v>667</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="M11">
+        <v>333.57841666666667</v>
+      </c>
+      <c r="N11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1.1760694444444446</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.1760694444444446</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="V11" s="17">
+        <v>333.57841666666667</v>
+      </c>
+      <c r="W11" s="17">
+        <v>1.1760694444444446</v>
+      </c>
+      <c r="X11" s="8">
+        <f>VLOOKUP(Q11, U46:V54, 2, FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>501</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="J12" s="12">
+        <v>461</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="M12">
+        <v>338.3331</v>
+      </c>
+      <c r="N12" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>-0.32640000000000002</v>
+      </c>
+      <c r="P12" s="11">
+        <f t="shared" si="1"/>
+        <v>0.32640000000000002</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="V12" s="17">
+        <v>338.3331</v>
+      </c>
+      <c r="W12" s="17">
+        <v>-0.32640000000000002</v>
+      </c>
+      <c r="X12" s="8">
+        <f>VLOOKUP(Q12, U46:V54, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>502</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="J13" s="12">
+        <v>468</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="M13">
+        <v>340.99900000000002</v>
+      </c>
+      <c r="N13" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>-8.0299999999999996E-2</v>
+      </c>
+      <c r="P13" s="11">
+        <f t="shared" si="1"/>
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="V13" s="17">
+        <v>340.99900000000002</v>
+      </c>
+      <c r="W13" s="17">
+        <v>-8.0299999999999996E-2</v>
+      </c>
+      <c r="X13" s="8">
+        <f>VLOOKUP(Q13, U46:V54, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>368</v>
+        <v>503</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="J14" s="12">
+        <v>162</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="M14" s="7">
+        <v>340.50490000000002</v>
+      </c>
+      <c r="N14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.4695999999999998</v>
+      </c>
+      <c r="P14" s="11">
+        <f t="shared" si="1"/>
+        <v>2.4695999999999998</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="V14" s="17">
+        <v>340.50490000000002</v>
+      </c>
+      <c r="W14" s="17">
+        <v>2.4695999999999998</v>
+      </c>
+      <c r="X14" s="8">
+        <f>VLOOKUP(Q14, U46:V54, 2, FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="Y14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="J15" s="12">
+        <v>473</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="M15">
+        <v>346.74279999999999</v>
+      </c>
+      <c r="N15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.4285999999999999</v>
+      </c>
+      <c r="P15" s="11">
+        <f t="shared" si="1"/>
+        <v>2.4285999999999999</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="V15" s="17">
+        <v>346.74279999999999</v>
+      </c>
+      <c r="W15" s="17">
+        <v>2.4285999999999999</v>
+      </c>
+      <c r="X15" s="8">
+        <f>VLOOKUP(Q15, U46:V54, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="J16" s="12">
+        <v>477</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="M16">
+        <v>349.9726</v>
+      </c>
+      <c r="N16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0.63690000000000002</v>
+      </c>
+      <c r="P16" s="11">
+        <f t="shared" si="1"/>
+        <v>0.63690000000000002</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R16">
+        <v>5</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="V16" s="17">
+        <v>349.9726</v>
+      </c>
+      <c r="W16" s="17">
+        <v>0.63690000000000002</v>
+      </c>
+      <c r="X16" s="8">
+        <f>VLOOKUP(Q16, U46:V54, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="J17" s="12">
+        <v>690</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>2.4152777777777779</v>
+      </c>
+      <c r="P17" s="11">
+        <f t="shared" si="1"/>
+        <v>2.4152777777777779</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="R17">
+        <v>4</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="V17" s="17">
+        <v>0</v>
+      </c>
+      <c r="W17" s="17">
+        <v>2.4152777777777779</v>
+      </c>
+      <c r="X17" s="8">
+        <f>VLOOKUP(Q17, U46:V54, 2, FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="Y17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -2238,11 +3443,56 @@
         <f>COUNTA(G3:G17)</f>
         <v>14</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="J18" s="12">
+        <v>5</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1.512545</v>
+      </c>
+      <c r="N18" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="7">
+        <v>-42.139282999999999</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" si="1"/>
+        <v>42.139282999999999</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="V18" s="17">
+        <v>1.512545</v>
+      </c>
+      <c r="W18" s="17">
+        <v>-42.139282999999999</v>
+      </c>
+      <c r="X18" s="8">
+        <f>VLOOKUP(Q18, U46:V54, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -2250,11 +3500,56 @@
         <f>SUM(C18:G18)</f>
         <v>42</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I19" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="J19" s="12">
+        <v>264</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="M19">
+        <v>8.0732999999999997</v>
+      </c>
+      <c r="N19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1.0102</v>
+      </c>
+      <c r="P19" s="11">
+        <f t="shared" si="1"/>
+        <v>1.0102</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R19">
+        <v>4</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="V19" s="17">
+        <v>8.0732999999999997</v>
+      </c>
+      <c r="W19" s="17">
+        <v>1.0102</v>
+      </c>
+      <c r="X19" s="8">
+        <f>VLOOKUP(Q19, U46:V54, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -2262,238 +3557,1514 @@
         <f>IF(G19=A46,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I20" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="J20" s="12">
+        <v>270</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="M20">
+        <v>29.909300000000002</v>
+      </c>
+      <c r="N20" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>-3.9828999999999999</v>
+      </c>
+      <c r="P20" s="11">
+        <f t="shared" si="1"/>
+        <v>3.9828999999999999</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R20">
+        <v>4</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="V20" s="17">
+        <v>29.909300000000002</v>
+      </c>
+      <c r="W20" s="17">
+        <v>-3.9828999999999999</v>
+      </c>
+      <c r="X20" s="8">
+        <f>VLOOKUP(Q20, U46:V54, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I21" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="J21" s="12">
+        <v>274</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="M21">
+        <v>32.814999999999998</v>
+      </c>
+      <c r="N21" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>-3.7299000000000002</v>
+      </c>
+      <c r="P21" s="11">
+        <f t="shared" si="1"/>
+        <v>3.7299000000000002</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R21">
+        <v>4</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="V21" s="17">
+        <v>32.814999999999998</v>
+      </c>
+      <c r="W21" s="17">
+        <v>-3.7299000000000002</v>
+      </c>
+      <c r="X21" s="8">
+        <f>VLOOKUP(Q21, U46:V54, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="J22" s="12">
+        <v>292</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="M22">
+        <v>38.383699999999997</v>
+      </c>
+      <c r="N22" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>-3.4670999999999998</v>
+      </c>
+      <c r="P22" s="11">
+        <f t="shared" si="1"/>
+        <v>3.4670999999999998</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R22">
+        <v>4</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="V22" s="17">
+        <v>38.383699999999997</v>
+      </c>
+      <c r="W22" s="17">
+        <v>-3.4670999999999998</v>
+      </c>
+      <c r="X22" s="8">
+        <f>VLOOKUP(Q22, U46:V54, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="J23" s="12">
+        <v>260</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="M23">
+        <v>0.80449999999999999</v>
+      </c>
+      <c r="N23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="P23" s="11">
+        <f t="shared" si="1"/>
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V23" s="17">
+        <v>0.80449999999999999</v>
+      </c>
+      <c r="W23" s="17">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="X23" s="8">
+        <f>VLOOKUP(Q23, U46:V54, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I24" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="J24" s="12">
+        <v>208</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="M24">
+        <v>33.288600000000002</v>
+      </c>
+      <c r="N24" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>-24.229199999999999</v>
+      </c>
+      <c r="P24" s="11">
+        <f t="shared" si="1"/>
+        <v>24.229199999999999</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="V24" s="17">
+        <v>33.288600000000002</v>
+      </c>
+      <c r="W24" s="17">
+        <v>-24.229199999999999</v>
+      </c>
+      <c r="X24" s="8">
+        <f>VLOOKUP(Q24, U46:V54, 2, FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I25" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="J25" s="12">
+        <v>583</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="M25">
+        <v>35.826374999999999</v>
+      </c>
+      <c r="N25" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>-10.980127777777778</v>
+      </c>
+      <c r="P25" s="11">
+        <f t="shared" si="1"/>
+        <v>10.980127777777778</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="V25" s="17">
+        <v>35.826374999999999</v>
+      </c>
+      <c r="W25" s="17">
+        <v>-10.980127777777778</v>
+      </c>
+      <c r="X25" s="8">
+        <f>VLOOKUP(Q25, U46:V54, 2, FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Y25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I26" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="J26" s="12">
+        <v>35</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7.7706999999999997</v>
+      </c>
+      <c r="N26" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O26" s="7">
+        <v>-44.049100000000003</v>
+      </c>
+      <c r="P26" s="11">
+        <f t="shared" si="1"/>
+        <v>44.049100000000003</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="V26" s="17">
+        <v>7.7706999999999997</v>
+      </c>
+      <c r="W26" s="17">
+        <v>-44.049100000000003</v>
+      </c>
+      <c r="X26" s="8">
+        <f>VLOOKUP(Q26, U46:V54, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I27" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="J27" s="12">
+        <v>564</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="M27">
+        <v>33.533625000000001</v>
+      </c>
+      <c r="N27" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>-5.5923305555555549</v>
+      </c>
+      <c r="P27" s="11">
+        <f t="shared" si="1"/>
+        <v>5.5923305555555549</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="V27" s="17">
+        <v>33.533625000000001</v>
+      </c>
+      <c r="W27" s="17">
+        <v>-5.5923305555555549</v>
+      </c>
+      <c r="X27" s="8">
+        <f>VLOOKUP(Q27, U46:V54, 2, FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Y27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I28" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="J28" s="12">
+        <v>574</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="M28">
+        <v>34.414833333333334</v>
+      </c>
+      <c r="N28" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>-10.555536111111111</v>
+      </c>
+      <c r="P28" s="11">
+        <f t="shared" si="1"/>
+        <v>10.555536111111111</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="V28" s="17">
+        <v>34.414833333333334</v>
+      </c>
+      <c r="W28" s="17">
+        <v>-10.555536111111111</v>
+      </c>
+      <c r="X28" s="8">
+        <f>VLOOKUP(Q28, U46:V54, 2, FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Y28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I29" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="J29" s="12">
+        <v>278</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="M29">
+        <v>34.5306</v>
+      </c>
+      <c r="N29" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>-5.2601000000000004</v>
+      </c>
+      <c r="P29" s="11">
+        <f t="shared" si="1"/>
+        <v>5.2601000000000004</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="V29" s="17">
+        <v>34.5306</v>
+      </c>
+      <c r="W29" s="17">
+        <v>-5.2601000000000004</v>
+      </c>
+      <c r="X29" s="8">
+        <f>VLOOKUP(Q29, U46:V54, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I30" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J30" s="12">
+        <v>284</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="M30">
+        <v>36.043700000000001</v>
+      </c>
+      <c r="N30" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>-3.6015000000000001</v>
+      </c>
+      <c r="P30" s="11">
+        <f t="shared" si="1"/>
+        <v>3.6015000000000001</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="V30" s="17">
+        <v>36.043700000000001</v>
+      </c>
+      <c r="W30" s="17">
+        <v>-3.6015000000000001</v>
+      </c>
+      <c r="X30" s="8">
+        <f>VLOOKUP(Q30, U46:V54, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I31" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="J31" s="12">
+        <v>288</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="M31">
+        <v>37.700600000000001</v>
+      </c>
+      <c r="N31" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>-1.9841</v>
+      </c>
+      <c r="P31" s="11">
+        <f t="shared" si="1"/>
+        <v>1.9841</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="V31" s="17">
+        <v>37.700600000000001</v>
+      </c>
+      <c r="W31" s="17">
+        <v>-1.9841</v>
+      </c>
+      <c r="X31" s="8">
+        <f>VLOOKUP(Q31, U46:V54, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I32" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="J32" s="12">
+        <v>297</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="M32">
+        <v>39.971400000000003</v>
+      </c>
+      <c r="N32" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>-1.5827</v>
+      </c>
+      <c r="P32" s="11">
+        <f t="shared" si="1"/>
+        <v>1.5827</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="V32" s="17">
+        <v>39.971400000000003</v>
+      </c>
+      <c r="W32" s="17">
+        <v>-1.5827</v>
+      </c>
+      <c r="X32" s="8">
+        <f>VLOOKUP(Q32, U46:V54, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I33" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="J33" s="12">
+        <v>11</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2.068835</v>
+      </c>
+      <c r="N33" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O33" s="7">
+        <v>-55.065944000000002</v>
+      </c>
+      <c r="P33" s="11">
+        <f t="shared" si="1"/>
+        <v>55.065944000000002</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="V33" s="17">
+        <v>2.068835</v>
+      </c>
+      <c r="W33" s="17">
+        <v>-55.065944000000002</v>
+      </c>
+      <c r="X33" s="8">
+        <f>VLOOKUP(Q33, U46:V54, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I34" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="J34" s="12">
+        <v>25</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="M34" s="7">
+        <v>5.4518310000000003</v>
+      </c>
+      <c r="N34" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O34" s="7">
+        <v>-50.474888</v>
+      </c>
+      <c r="P34" s="11">
+        <f t="shared" si="1"/>
+        <v>50.474888</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="V34" s="17">
+        <v>5.4518310000000003</v>
+      </c>
+      <c r="W34" s="17">
+        <v>-50.474888</v>
+      </c>
+      <c r="X34" s="8">
+        <f>VLOOKUP(Q34, U46:V54, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I35" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="J35" s="12">
+        <v>22</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="M35" s="7">
+        <v>5.3912000000000004</v>
+      </c>
+      <c r="N35" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O35" s="7">
+        <v>-40.667900000000003</v>
+      </c>
+      <c r="P35" s="11">
+        <f t="shared" si="1"/>
+        <v>40.667900000000003</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="V35" s="17">
+        <v>5.3912000000000004</v>
+      </c>
+      <c r="W35" s="17">
+        <v>-40.667900000000003</v>
+      </c>
+      <c r="X35" s="8">
+        <f>VLOOKUP(Q35, U46:V54, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I36" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="J36" s="12">
+        <v>38</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="M36" s="7">
+        <v>8.3505789999999998</v>
+      </c>
+      <c r="N36" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O36" s="7">
+        <v>-54.760089999999998</v>
+      </c>
+      <c r="P36" s="11">
+        <f t="shared" si="1"/>
+        <v>54.760089999999998</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="V36" s="17">
+        <v>8.3505789999999998</v>
+      </c>
+      <c r="W36" s="17">
+        <v>-54.760089999999998</v>
+      </c>
+      <c r="X36" s="8">
+        <f>VLOOKUP(Q36, U46:V54, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I37" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="J37" s="12">
+        <v>265</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="M37">
+        <v>8.6173000000000002</v>
+      </c>
+      <c r="N37" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>2.4226999999999999</v>
+      </c>
+      <c r="P37" s="11">
+        <f t="shared" si="1"/>
+        <v>2.4226999999999999</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="V37" s="17">
+        <v>8.6173000000000002</v>
+      </c>
+      <c r="W37" s="17">
+        <v>2.4226999999999999</v>
+      </c>
+      <c r="X37" s="8">
+        <f>VLOOKUP(Q37, U46:V54, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I38" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J38" s="12">
+        <v>266</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="M38">
+        <v>16.788599999999999</v>
+      </c>
+      <c r="N38" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>1.2918000000000001</v>
+      </c>
+      <c r="P38" s="11">
+        <f t="shared" si="1"/>
+        <v>1.2918000000000001</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="V38" s="17">
+        <v>16.788599999999999</v>
+      </c>
+      <c r="W38" s="17">
+        <v>1.2918000000000001</v>
+      </c>
+      <c r="X38" s="8">
+        <f>VLOOKUP(Q38, U46:V54, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I39" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="J39" s="12">
+        <v>268</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="M39">
+        <v>29.226500000000001</v>
+      </c>
+      <c r="N39" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>-4.4070999999999998</v>
+      </c>
+      <c r="P39" s="11">
+        <f t="shared" si="1"/>
+        <v>4.4070999999999998</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="V39" s="17">
+        <v>29.226500000000001</v>
+      </c>
+      <c r="W39" s="17">
+        <v>-4.4070999999999998</v>
+      </c>
+      <c r="X39" s="8">
+        <f>VLOOKUP(Q39, U46:V54, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I40" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="J40" s="12">
+        <v>549</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="M40">
+        <v>30.958249999999996</v>
+      </c>
+      <c r="N40" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>-9.714863888888889</v>
+      </c>
+      <c r="P40" s="11">
+        <f t="shared" si="1"/>
+        <v>9.714863888888889</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="V40" s="17">
+        <v>30.958249999999996</v>
+      </c>
+      <c r="W40" s="17">
+        <v>-9.714863888888889</v>
+      </c>
+      <c r="X40" s="8">
+        <f>VLOOKUP(Q40, U46:V54, 2, FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I41" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="J41" s="12">
+        <v>561</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="M41">
+        <v>32.827041666666666</v>
+      </c>
+      <c r="N41" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>-4.4581111111111111</v>
+      </c>
+      <c r="P41" s="11">
+        <f t="shared" si="1"/>
+        <v>4.4581111111111111</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="V41" s="17">
+        <v>32.827041666666666</v>
+      </c>
+      <c r="W41" s="17">
+        <v>-4.4581111111111111</v>
+      </c>
+      <c r="X41" s="8">
+        <f>VLOOKUP(Q41, U46:V54, 2, FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I42" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="J42" s="12">
+        <v>579</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="M42">
+        <v>35.179625000000001</v>
+      </c>
+      <c r="N42" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>-10.871236111111111</v>
+      </c>
+      <c r="P42" s="11">
+        <f t="shared" si="1"/>
+        <v>10.871236111111111</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="V42" s="17">
+        <v>35.179625000000001</v>
+      </c>
+      <c r="W42" s="17">
+        <v>-10.871236111111111</v>
+      </c>
+      <c r="X42" s="8">
+        <f>VLOOKUP(Q42, U46:V54, 2, FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I43" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="J43" s="12">
+        <v>442</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="M43">
+        <v>333.04759999999999</v>
+      </c>
+      <c r="N43" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>-0.1389</v>
+      </c>
+      <c r="P43" s="11">
+        <f t="shared" si="1"/>
+        <v>0.1389</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="V43" s="17">
+        <v>333.04759999999999</v>
+      </c>
+      <c r="W43" s="17">
+        <v>-0.1389</v>
+      </c>
+      <c r="X43" s="8">
+        <f>VLOOKUP(Q43, U46:V54, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="J44" s="12">
+        <v>448</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="M44">
+        <v>333.45499999999998</v>
+      </c>
+      <c r="N44" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="P44" s="11">
+        <f t="shared" si="1"/>
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="V44" s="16">
+        <v>333.45499999999998</v>
+      </c>
+      <c r="W44" s="16">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="X44" s="8">
+        <f>VLOOKUP(Q44, U46:V54, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X45" s="8"/>
+    </row>
+    <row r="46" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f>COUNTA(A3:A44)</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="Q46" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="R46">
+        <f>COUNTIF(R3:R44, 1)</f>
+        <v>12</v>
+      </c>
+      <c r="U46" t="s">
+        <v>450</v>
+      </c>
+      <c r="V46" t="s">
+        <v>610</v>
+      </c>
+      <c r="X46" s="8"/>
+    </row>
+    <row r="47" spans="1:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="Q47" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="R47">
+        <f>COUNTIF(R3:R44, 2)</f>
+        <v>7</v>
+      </c>
+      <c r="U47" t="s">
+        <v>455</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="X47" s="8"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q48" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="R48">
+        <f>COUNTIF(R3:R44, 3)</f>
+        <v>3</v>
+      </c>
+      <c r="U48" t="s">
+        <v>453</v>
+      </c>
+      <c r="V48">
+        <v>2</v>
+      </c>
+      <c r="X48" s="8"/>
+    </row>
+    <row r="49" spans="17:24" x14ac:dyDescent="0.2">
+      <c r="Q49" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="R49">
+        <f>COUNTIF(R3:R44, 4)</f>
+        <v>6</v>
+      </c>
+      <c r="U49" t="s">
+        <v>458</v>
+      </c>
+      <c r="V49">
+        <v>3</v>
+      </c>
+      <c r="X49" s="8"/>
+    </row>
+    <row r="50" spans="17:24" x14ac:dyDescent="0.2">
+      <c r="Q50" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="R50">
+        <f>COUNTIF(R3:R44, 5)</f>
+        <v>14</v>
+      </c>
+      <c r="U50" t="s">
+        <v>474</v>
+      </c>
+      <c r="V50">
+        <v>4</v>
+      </c>
+      <c r="X50" s="8"/>
+    </row>
+    <row r="51" spans="17:24" x14ac:dyDescent="0.2">
+      <c r="Q51" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="R51">
+        <f>SUM(R46:R50)</f>
+        <v>42</v>
+      </c>
+      <c r="U51" t="s">
+        <v>486</v>
+      </c>
+      <c r="V51">
+        <v>5</v>
+      </c>
+      <c r="X51" s="8"/>
+    </row>
+    <row r="52" spans="17:24" x14ac:dyDescent="0.2">
+      <c r="U52" t="s">
+        <v>461</v>
+      </c>
+      <c r="V52">
+        <v>6</v>
+      </c>
+      <c r="X52" s="8"/>
+    </row>
+    <row r="53" spans="17:24" x14ac:dyDescent="0.2">
+      <c r="U53" t="s">
+        <v>488</v>
+      </c>
+      <c r="V53">
+        <v>7</v>
+      </c>
+      <c r="X53" s="8"/>
+    </row>
+    <row r="54" spans="17:24" x14ac:dyDescent="0.2">
+      <c r="U54" t="s">
+        <v>481</v>
+      </c>
+      <c r="V54">
+        <v>8</v>
+      </c>
+      <c r="X54" s="8"/>
+    </row>
+    <row r="55" spans="17:24" x14ac:dyDescent="0.2">
+      <c r="X55" s="8"/>
+    </row>
+    <row r="56" spans="17:24" x14ac:dyDescent="0.2">
+      <c r="X56" s="8"/>
+    </row>
+    <row r="57" spans="17:24" x14ac:dyDescent="0.2">
+      <c r="X57" s="8"/>
+    </row>
+    <row r="58" spans="17:24" x14ac:dyDescent="0.2">
+      <c r="X58" s="8"/>
+    </row>
+    <row r="59" spans="17:24" x14ac:dyDescent="0.2">
+      <c r="X59" s="8"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I3:R44">
+    <sortCondition descending="1" ref="R3:R44"/>
+    <sortCondition ref="K3:K44"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0F817E-5782-DA45-90A4-3804A94EEE37}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="D2" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -2513,753 +5084,3404 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J2" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="I2" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="O2" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="P2" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="U2" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>398</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>361</v>
       </c>
       <c r="E3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G3" t="s">
+        <v>507</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="J3" s="12">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" t="s">
+        <v>566</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="K3">
-        <v>2.9729830000000002</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>-46.238663000000003</v>
-      </c>
-      <c r="N3">
-        <v>46.238663000000003</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="M3" s="7">
+        <v>2.9736129999999998</v>
+      </c>
+      <c r="N3" s="12">
+        <f>IF(O3&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="7">
+        <v>-46.239201000000001</v>
+      </c>
+      <c r="P3" s="11">
+        <f>ABS(O3)</f>
+        <v>46.239201000000001</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="U3" t="s">
+        <v>566</v>
+      </c>
+      <c r="V3" s="7">
+        <v>2.9736129999999998</v>
+      </c>
+      <c r="W3" s="7">
+        <v>-46.239201000000001</v>
+      </c>
+      <c r="X3" s="8">
+        <f>VLOOKUP(Q3, U62:V69, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>489</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>309</v>
       </c>
       <c r="E4" t="s">
-        <v>301</v>
+        <v>152</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>521</v>
       </c>
       <c r="G4" t="s">
+        <v>508</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="M4">
+        <v>2.9729830000000002</v>
+      </c>
+      <c r="N4" s="12">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>-46.238663000000003</v>
+      </c>
+      <c r="P4" s="12">
+        <v>46.238663000000003</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="V4">
+        <v>2.9729830000000002</v>
+      </c>
+      <c r="W4">
+        <v>-46.238663000000003</v>
+      </c>
+      <c r="X4" s="8">
+        <f>VLOOKUP(Q4, U62:V69, 2, FALSE)</f>
         <v>2</v>
       </c>
-      <c r="I4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Y4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>490</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>382</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="J5" s="12">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>566</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2.969506</v>
+      </c>
+      <c r="N5" s="12">
+        <f t="shared" ref="N5:N36" si="0">IF(O5&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <v>-46.238942000000002</v>
+      </c>
+      <c r="P5" s="11">
+        <f t="shared" ref="P5:P36" si="1">ABS(O5)</f>
+        <v>46.238942000000002</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="U5" t="s">
+        <v>566</v>
+      </c>
+      <c r="V5" s="7">
+        <v>2.969506</v>
+      </c>
+      <c r="W5" s="7">
+        <v>-46.238942000000002</v>
+      </c>
+      <c r="X5" s="8">
+        <f>VLOOKUP(Q5, U62:V69, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>394</v>
+        <v>491</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>523</v>
       </c>
       <c r="G6" t="s">
+        <v>442</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="J6" s="12">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>577</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="M6" s="7">
+        <v>5.9334790000000002</v>
+      </c>
+      <c r="N6" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <v>-49.391714</v>
+      </c>
+      <c r="P6" s="11">
+        <f t="shared" si="1"/>
+        <v>49.391714</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="R6">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="U6" t="s">
+        <v>577</v>
+      </c>
+      <c r="V6" s="7">
+        <v>5.9334790000000002</v>
+      </c>
+      <c r="W6" s="7">
+        <v>-49.391714</v>
+      </c>
+      <c r="X6" s="8">
+        <f>VLOOKUP(Q6, U62:V69, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>398</v>
+        <v>492</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>394</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
+        <v>520</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="J7" s="12">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>585</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="M7" s="7">
+        <v>6.4912650000000003</v>
+      </c>
+      <c r="N7" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="7">
+        <v>-41.555826000000003</v>
+      </c>
+      <c r="P7" s="11">
+        <f t="shared" si="1"/>
+        <v>41.555826000000003</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="R7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="U7" t="s">
+        <v>585</v>
+      </c>
+      <c r="V7" s="7">
+        <v>6.4912650000000003</v>
+      </c>
+      <c r="W7" s="7">
+        <v>-41.555826000000003</v>
+      </c>
+      <c r="X7" s="8">
+        <f>VLOOKUP(Q7, U62:V69, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>493</v>
       </c>
       <c r="D8" t="s">
-        <v>309</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>524</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="J8" s="12">
+        <v>41</v>
+      </c>
+      <c r="K8" t="s">
+        <v>588</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="M8" s="7">
+        <v>8.8458419999999993</v>
+      </c>
+      <c r="N8" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
+        <v>-51.506618000000003</v>
+      </c>
+      <c r="P8" s="11">
+        <f t="shared" si="1"/>
+        <v>51.506618000000003</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="U8" t="s">
+        <v>588</v>
+      </c>
+      <c r="V8" s="7">
+        <v>8.8458419999999993</v>
+      </c>
+      <c r="W8" s="7">
+        <v>-51.506618000000003</v>
+      </c>
+      <c r="X8" s="8">
+        <f>VLOOKUP(Q8, U62:V69, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>326</v>
+        <v>494</v>
       </c>
       <c r="D9" t="s">
         <v>262</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>525</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="J9" s="12">
+        <v>751</v>
+      </c>
+      <c r="K9" t="s">
+        <v>606</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="M9">
+        <v>14.703916666666666</v>
+      </c>
+      <c r="N9" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="7">
+        <v>-7.3657499999999994</v>
+      </c>
+      <c r="P9" s="11">
+        <f t="shared" si="1"/>
+        <v>7.3657499999999994</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="U9" t="s">
+        <v>606</v>
+      </c>
+      <c r="V9">
+        <v>14.703916666666666</v>
+      </c>
+      <c r="W9" s="7">
+        <v>-7.3657499999999994</v>
+      </c>
+      <c r="X9" s="8">
+        <f>VLOOKUP(Q9, U62:V69, 2, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>287</v>
+        <v>495</v>
       </c>
       <c r="D10" t="s">
-        <v>361</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>526</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="J10" s="12">
+        <v>563</v>
+      </c>
+      <c r="K10" t="s">
+        <v>600</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="M10">
+        <v>33.352166666666669</v>
+      </c>
+      <c r="N10" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>-7.7318944444444444</v>
+      </c>
+      <c r="P10" s="11">
+        <f t="shared" si="1"/>
+        <v>7.7318944444444444</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="U10" t="s">
+        <v>600</v>
+      </c>
+      <c r="V10">
+        <v>33.352166666666669</v>
+      </c>
+      <c r="W10">
+        <v>-7.7318944444444444</v>
+      </c>
+      <c r="X10" s="8">
+        <f>VLOOKUP(Q10, U62:V69, 2, FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>496</v>
       </c>
       <c r="D11" t="s">
-        <v>382</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>527</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="J11" s="12">
+        <v>211</v>
+      </c>
+      <c r="K11" t="s">
+        <v>569</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="M11">
+        <v>48.405999999999999</v>
+      </c>
+      <c r="N11" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>-36.177700000000002</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" si="1"/>
+        <v>36.177700000000002</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="U11" t="s">
+        <v>569</v>
+      </c>
+      <c r="V11">
+        <v>48.405999999999999</v>
+      </c>
+      <c r="W11">
+        <v>-36.177700000000002</v>
+      </c>
+      <c r="X11" s="8">
+        <f>VLOOKUP(Q11, U62:V69, 2, FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>401</v>
+        <v>497</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>528</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="J12" s="12">
+        <v>440</v>
+      </c>
+      <c r="K12" t="s">
+        <v>589</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="M12">
+        <v>332.24990000000003</v>
+      </c>
+      <c r="N12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.1152000000000002</v>
+      </c>
+      <c r="P12" s="11">
+        <f t="shared" si="1"/>
+        <v>2.1152000000000002</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="U12" t="s">
+        <v>589</v>
+      </c>
+      <c r="V12">
+        <v>332.24990000000003</v>
+      </c>
+      <c r="W12">
+        <v>2.1152000000000002</v>
+      </c>
+      <c r="X12" s="8">
+        <f>VLOOKUP(Q12, U62:V69, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>498</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="J13" s="12">
+        <v>667</v>
+      </c>
+      <c r="K13" t="s">
+        <v>592</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="M13">
+        <v>333.57841666666667</v>
+      </c>
+      <c r="N13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1.1760694444444446</v>
+      </c>
+      <c r="P13" s="11">
+        <f t="shared" si="1"/>
+        <v>1.1760694444444446</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="U13" t="s">
+        <v>592</v>
+      </c>
+      <c r="V13">
+        <v>333.57841666666667</v>
+      </c>
+      <c r="W13">
+        <v>1.1760694444444446</v>
+      </c>
+      <c r="X13" s="8">
+        <f t="shared" ref="X13" si="2">VLOOKUP(Q13, U67:V74, 2, FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Y13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>299</v>
+        <v>499</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="J14" s="12">
+        <v>461</v>
+      </c>
+      <c r="K14" t="s">
+        <v>593</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="M14">
+        <v>338.3331</v>
+      </c>
+      <c r="N14" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>-0.32640000000000002</v>
+      </c>
+      <c r="P14" s="11">
+        <f t="shared" si="1"/>
+        <v>0.32640000000000002</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="U14" t="s">
+        <v>593</v>
+      </c>
+      <c r="V14">
+        <v>338.3331</v>
+      </c>
+      <c r="W14">
+        <v>-0.32640000000000002</v>
+      </c>
+      <c r="X14" s="8">
+        <f>VLOOKUP(Q14, U62:V69, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>500</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="J15" s="12">
+        <v>468</v>
+      </c>
+      <c r="K15" t="s">
+        <v>594</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="M15">
+        <v>340.99900000000002</v>
+      </c>
+      <c r="N15" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>-8.0299999999999996E-2</v>
+      </c>
+      <c r="P15" s="11">
+        <f t="shared" si="1"/>
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="U15" t="s">
+        <v>594</v>
+      </c>
+      <c r="V15">
+        <v>340.99900000000002</v>
+      </c>
+      <c r="W15">
+        <v>-8.0299999999999996E-2</v>
+      </c>
+      <c r="X15" s="8">
+        <f>VLOOKUP(Q15, U62:V69, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>300</v>
+        <v>501</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="J16" s="12">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>567</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="M16" s="7">
+        <v>340.50490000000002</v>
+      </c>
+      <c r="N16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.4695999999999998</v>
+      </c>
+      <c r="P16" s="11">
+        <f t="shared" si="1"/>
+        <v>2.4695999999999998</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="R16">
+        <v>5</v>
+      </c>
+      <c r="U16" t="s">
+        <v>567</v>
+      </c>
+      <c r="V16" s="7">
+        <v>340.50490000000002</v>
+      </c>
+      <c r="W16">
+        <v>2.4695999999999998</v>
+      </c>
+      <c r="X16" s="8">
+        <f>VLOOKUP(Q16, U62:V69, 2, FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="Y16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
+        <v>502</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="J17" s="12">
+        <v>879</v>
+      </c>
+      <c r="K17" t="s">
+        <v>567</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="M17">
+        <v>340.50491666666665</v>
+      </c>
+      <c r="N17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>2.469613888888889</v>
+      </c>
+      <c r="P17" s="11">
+        <f t="shared" si="1"/>
+        <v>2.469613888888889</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
+      <c r="U17" t="s">
+        <v>567</v>
+      </c>
+      <c r="V17">
+        <v>340.50491666666665</v>
+      </c>
+      <c r="W17" s="7">
+        <v>2.469613888888889</v>
+      </c>
+      <c r="X17" s="8">
+        <f>VLOOKUP(Q17, U62:V69, 2, FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>403</v>
+        <v>503</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="J18" s="12">
+        <v>79</v>
+      </c>
+      <c r="K18" t="s">
+        <v>595</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="M18" s="7">
+        <v>346.74279999999999</v>
+      </c>
+      <c r="N18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.4285999999999999</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" si="1"/>
+        <v>2.4285999999999999</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="U18" t="s">
+        <v>595</v>
+      </c>
+      <c r="V18" s="7">
+        <v>346.74279999999999</v>
+      </c>
+      <c r="W18">
+        <v>2.4285999999999999</v>
+      </c>
+      <c r="X18" s="8">
+        <f>VLOOKUP(Q18, U62:V69, 2, FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="Y18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>184</v>
+        <v>504</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="J19" s="12">
+        <v>473</v>
+      </c>
+      <c r="K19" t="s">
+        <v>595</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="M19">
+        <v>346.74279999999999</v>
+      </c>
+      <c r="N19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.4285999999999999</v>
+      </c>
+      <c r="P19" s="11">
+        <f t="shared" si="1"/>
+        <v>2.4285999999999999</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="U19" t="s">
+        <v>595</v>
+      </c>
+      <c r="V19">
+        <v>346.74279999999999</v>
+      </c>
+      <c r="W19">
+        <v>2.4285999999999999</v>
+      </c>
+      <c r="X19" s="8">
+        <f>VLOOKUP(Q19, U62:V69, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>238</v>
-      </c>
       <c r="G20" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="J20" s="12">
+        <v>477</v>
+      </c>
+      <c r="K20" t="s">
+        <v>596</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="M20">
+        <v>349.9726</v>
+      </c>
+      <c r="N20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0.63690000000000002</v>
+      </c>
+      <c r="P20" s="11">
+        <f t="shared" si="1"/>
+        <v>0.63690000000000002</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R20">
+        <v>5</v>
+      </c>
+      <c r="U20" t="s">
+        <v>596</v>
+      </c>
+      <c r="V20">
+        <v>349.9726</v>
+      </c>
+      <c r="W20">
+        <v>0.63690000000000002</v>
+      </c>
+      <c r="X20" s="8">
+        <f>VLOOKUP(Q20, U62:V69, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I21" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="J21" s="12">
+        <v>690</v>
+      </c>
+      <c r="K21" t="s">
+        <v>605</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <v>2.4152777777777779</v>
+      </c>
+      <c r="P21" s="11">
+        <f t="shared" si="1"/>
+        <v>2.4152777777777779</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="R21">
+        <v>4</v>
+      </c>
+      <c r="U21" t="s">
+        <v>605</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21" s="7">
+        <v>2.4152777777777779</v>
+      </c>
+      <c r="X21" s="8">
+        <f>VLOOKUP(Q21, U62:V69, 2, FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="Y21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="J22" s="12">
+        <v>5</v>
+      </c>
+      <c r="K22" t="s">
+        <v>597</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1.512545</v>
+      </c>
+      <c r="N22" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="7">
+        <v>-42.139282999999999</v>
+      </c>
+      <c r="P22" s="11">
+        <f t="shared" si="1"/>
+        <v>42.139282999999999</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="R22">
+        <v>4</v>
+      </c>
+      <c r="U22" t="s">
+        <v>597</v>
+      </c>
+      <c r="V22" s="7">
+        <v>1.512545</v>
+      </c>
+      <c r="W22" s="7">
+        <v>-42.139282999999999</v>
+      </c>
+      <c r="X22" s="8">
+        <f>VLOOKUP(Q22, U62:V69, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
-        <v>368</v>
-      </c>
-      <c r="I23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="J23" s="12">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s">
+        <v>566</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="M23" s="7">
+        <v>2.9728940000000001</v>
+      </c>
+      <c r="N23" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="7">
+        <v>-46.241202000000001</v>
+      </c>
+      <c r="P23" s="11">
+        <f t="shared" si="1"/>
+        <v>46.241202000000001</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+      <c r="U23" t="s">
+        <v>566</v>
+      </c>
+      <c r="V23" s="7">
+        <v>2.9728940000000001</v>
+      </c>
+      <c r="W23" s="7">
+        <v>-46.241202000000001</v>
+      </c>
+      <c r="X23" s="8">
+        <f>VLOOKUP(Q23, U62:V69, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="I24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="J24" s="12">
+        <v>28</v>
+      </c>
+      <c r="K24" t="s">
+        <v>577</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="M24" s="7">
+        <v>5.9326999999999996</v>
+      </c>
+      <c r="N24" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O24" s="7">
+        <v>-49.390300000000003</v>
+      </c>
+      <c r="P24" s="11">
+        <f t="shared" si="1"/>
+        <v>49.390300000000003</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="U24" t="s">
+        <v>577</v>
+      </c>
+      <c r="V24" s="7">
+        <v>5.9326999999999996</v>
+      </c>
+      <c r="W24" s="7">
+        <v>-49.390300000000003</v>
+      </c>
+      <c r="X24" s="8">
+        <f>VLOOKUP(Q24, U62:V69, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="3">
-        <f>COUNTA(C3:C23)</f>
-        <v>21</v>
+        <f>COUNTA(C3:C19)</f>
+        <v>17</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" ref="D25:G25" si="0">COUNTA(D3:D23)</f>
+        <f t="shared" ref="D25:G25" si="3">COUNTA(D3:D23)</f>
         <v>9</v>
       </c>
       <c r="E25" s="3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="J25" s="12">
+        <v>31</v>
+      </c>
+      <c r="K25" t="s">
+        <v>585</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="M25" s="7">
+        <v>6.4905910000000002</v>
+      </c>
+      <c r="N25" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="I25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="O25" s="7">
+        <v>-41.555939000000002</v>
+      </c>
+      <c r="P25" s="11">
+        <f t="shared" si="1"/>
+        <v>41.555939000000002</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="U25" t="s">
+        <v>585</v>
+      </c>
+      <c r="V25" s="7">
+        <v>6.4905910000000002</v>
+      </c>
+      <c r="W25" s="7">
+        <v>-41.555939000000002</v>
+      </c>
+      <c r="X25" s="8">
+        <f>VLOOKUP(Q25, U62:V69, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="G26">
         <f>SUM(C25:G25)</f>
-        <v>61</v>
-      </c>
-      <c r="I26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="J26" s="12">
+        <v>264</v>
+      </c>
+      <c r="K26" t="s">
+        <v>573</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="M26">
+        <v>8.0732999999999997</v>
+      </c>
+      <c r="N26" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1.0102</v>
+      </c>
+      <c r="P26" s="11">
+        <f t="shared" si="1"/>
+        <v>1.0102</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R26">
+        <v>4</v>
+      </c>
+      <c r="U26" t="s">
+        <v>573</v>
+      </c>
+      <c r="V26">
+        <v>8.0732999999999997</v>
+      </c>
+      <c r="W26">
+        <v>1.0102</v>
+      </c>
+      <c r="X26" s="8">
+        <f>VLOOKUP(Q26, U62:V69, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="I27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I27" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="J27" s="12">
+        <v>781</v>
+      </c>
+      <c r="K27" t="s">
+        <v>606</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="M27">
+        <v>14.703958333333334</v>
+      </c>
+      <c r="N27" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O27" s="7">
+        <v>-7.3657499999999994</v>
+      </c>
+      <c r="P27" s="11">
+        <f t="shared" si="1"/>
+        <v>7.3657499999999994</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+      <c r="U27" t="s">
+        <v>606</v>
+      </c>
+      <c r="V27">
+        <v>14.703958333333334</v>
+      </c>
+      <c r="W27" s="7">
+        <v>-7.3657499999999994</v>
+      </c>
+      <c r="X27" s="8">
+        <f>VLOOKUP(Q27, U62:V69, 2, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Y27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="I28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I28" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="J28" s="12">
+        <v>270</v>
+      </c>
+      <c r="K28" t="s">
+        <v>578</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="M28">
+        <v>29.909300000000002</v>
+      </c>
+      <c r="N28" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>-3.9828999999999999</v>
+      </c>
+      <c r="P28" s="11">
+        <f t="shared" si="1"/>
+        <v>3.9828999999999999</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R28">
+        <v>4</v>
+      </c>
+      <c r="U28" t="s">
+        <v>578</v>
+      </c>
+      <c r="V28">
+        <v>29.909300000000002</v>
+      </c>
+      <c r="W28">
+        <v>-3.9828999999999999</v>
+      </c>
+      <c r="X28" s="8">
+        <f>VLOOKUP(Q28, U62:V69, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="I29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I29" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="J29" s="12">
+        <v>274</v>
+      </c>
+      <c r="K29" t="s">
+        <v>579</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="M29">
+        <v>32.814999999999998</v>
+      </c>
+      <c r="N29" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>-3.7299000000000002</v>
+      </c>
+      <c r="P29" s="11">
+        <f t="shared" si="1"/>
+        <v>3.7299000000000002</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R29">
+        <v>4</v>
+      </c>
+      <c r="U29" t="s">
+        <v>579</v>
+      </c>
+      <c r="V29">
+        <v>32.814999999999998</v>
+      </c>
+      <c r="W29">
+        <v>-3.7299000000000002</v>
+      </c>
+      <c r="X29" s="8">
+        <f>VLOOKUP(Q29, U62:V69, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="I30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I30" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="J30" s="12">
+        <v>292</v>
+      </c>
+      <c r="K30" t="s">
+        <v>583</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="M30">
+        <v>38.383699999999997</v>
+      </c>
+      <c r="N30" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>-3.4670999999999998</v>
+      </c>
+      <c r="P30" s="11">
+        <f t="shared" si="1"/>
+        <v>3.4670999999999998</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R30">
+        <v>4</v>
+      </c>
+      <c r="U30" t="s">
+        <v>583</v>
+      </c>
+      <c r="V30">
+        <v>38.383699999999997</v>
+      </c>
+      <c r="W30">
+        <v>-3.4670999999999998</v>
+      </c>
+      <c r="X30" s="8">
+        <f>VLOOKUP(Q30, U62:V69, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="I31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I31" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="J31" s="12">
+        <v>260</v>
+      </c>
+      <c r="K31" t="s">
+        <v>572</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="M31">
+        <v>0.80449999999999999</v>
+      </c>
+      <c r="N31" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="P31" s="11">
+        <f t="shared" si="1"/>
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="U31" t="s">
+        <v>572</v>
+      </c>
+      <c r="V31">
+        <v>0.80449999999999999</v>
+      </c>
+      <c r="W31">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="X31" s="8">
+        <f>VLOOKUP(Q31, U62:V69, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="I32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I32" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="J32" s="12">
+        <v>208</v>
+      </c>
+      <c r="K32" t="s">
+        <v>568</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="M32">
+        <v>33.288600000000002</v>
+      </c>
+      <c r="N32" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>-24.229199999999999</v>
+      </c>
+      <c r="P32" s="11">
+        <f t="shared" si="1"/>
+        <v>24.229199999999999</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
+      <c r="U32" t="s">
+        <v>568</v>
+      </c>
+      <c r="V32">
+        <v>33.288600000000002</v>
+      </c>
+      <c r="W32">
+        <v>-24.229199999999999</v>
+      </c>
+      <c r="X32" s="8">
+        <f>VLOOKUP(Q32, U62:V69, 2, FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Y32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="I33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I33" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="J33" s="12">
+        <v>583</v>
+      </c>
+      <c r="K33" t="s">
+        <v>604</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="M33">
+        <v>35.826374999999999</v>
+      </c>
+      <c r="N33" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>-10.980127777777778</v>
+      </c>
+      <c r="P33" s="11">
+        <f t="shared" si="1"/>
+        <v>10.980127777777778</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R33">
+        <v>3</v>
+      </c>
+      <c r="U33" t="s">
+        <v>604</v>
+      </c>
+      <c r="V33">
+        <v>35.826374999999999</v>
+      </c>
+      <c r="W33">
+        <v>-10.980127777777778</v>
+      </c>
+      <c r="X33" s="8">
+        <f>VLOOKUP(Q33, U62:V69, 2, FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Y33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="I34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I34" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="J34" s="12">
+        <v>35</v>
+      </c>
+      <c r="K34" t="s">
+        <v>586</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="M34" s="7">
+        <v>7.7706999999999997</v>
+      </c>
+      <c r="N34" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O34" s="7">
+        <v>-44.049100000000003</v>
+      </c>
+      <c r="P34" s="11">
+        <f t="shared" si="1"/>
+        <v>44.049100000000003</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="U34" t="s">
+        <v>586</v>
+      </c>
+      <c r="V34" s="7">
+        <v>7.7706999999999997</v>
+      </c>
+      <c r="W34" s="7">
+        <v>-44.049100000000003</v>
+      </c>
+      <c r="X34" s="8">
+        <f>VLOOKUP(Q34, U62:V69, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="I35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I35" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="J35" s="12">
+        <v>43</v>
+      </c>
+      <c r="K35" t="s">
+        <v>588</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="M35" s="7">
+        <v>8.8440820000000002</v>
+      </c>
+      <c r="N35" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O35" s="7">
+        <v>-51.503093</v>
+      </c>
+      <c r="P35" s="11">
+        <f t="shared" si="1"/>
+        <v>51.503093</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="U35" t="s">
+        <v>588</v>
+      </c>
+      <c r="V35" s="7">
+        <v>8.8440820000000002</v>
+      </c>
+      <c r="W35" s="7">
+        <v>-51.503093</v>
+      </c>
+      <c r="X35" s="8">
+        <f>VLOOKUP(Q35, U62:V69, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="I36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I36" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="J36" s="12">
+        <v>564</v>
+      </c>
+      <c r="K36" t="s">
+        <v>601</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="M36">
+        <v>33.546833333333332</v>
+      </c>
+      <c r="N36" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>-4.0840861111111106</v>
+      </c>
+      <c r="P36" s="11">
+        <f t="shared" si="1"/>
+        <v>4.0840861111111106</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="U36" t="s">
+        <v>601</v>
+      </c>
+      <c r="V36">
+        <v>33.546833333333332</v>
+      </c>
+      <c r="W36">
+        <v>-4.0840861111111106</v>
+      </c>
+      <c r="X36" s="8">
+        <f>VLOOKUP(Q36, U62:V69, 2, FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Y36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>394</v>
       </c>
-      <c r="I37" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I37" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="J37" s="12">
+        <v>574</v>
+      </c>
+      <c r="K37" t="s">
+        <v>602</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="M37">
+        <v>34.414833333333334</v>
+      </c>
+      <c r="N37" s="12">
+        <f t="shared" ref="N37:N59" si="4">IF(O37&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>-10.555536111111111</v>
+      </c>
+      <c r="P37" s="11">
+        <f t="shared" ref="P37:P59" si="5">ABS(O37)</f>
+        <v>10.555536111111111</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="U37" t="s">
+        <v>602</v>
+      </c>
+      <c r="V37">
+        <v>34.414833333333334</v>
+      </c>
+      <c r="W37">
+        <v>-10.555536111111111</v>
+      </c>
+      <c r="X37" s="8">
+        <f>VLOOKUP(Q37, U62:V69, 2, FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Y37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>133</v>
       </c>
-      <c r="I38" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I38" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="J38" s="12">
+        <v>278</v>
+      </c>
+      <c r="K38" t="s">
+        <v>580</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="M38">
+        <v>34.5306</v>
+      </c>
+      <c r="N38" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>-5.2601000000000004</v>
+      </c>
+      <c r="P38" s="11">
+        <f t="shared" si="5"/>
+        <v>5.2601000000000004</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="U38" t="s">
+        <v>580</v>
+      </c>
+      <c r="V38">
+        <v>34.5306</v>
+      </c>
+      <c r="W38">
+        <v>-5.2601000000000004</v>
+      </c>
+      <c r="X38" s="8">
+        <f>VLOOKUP(Q38, U62:V69, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>65</v>
       </c>
-      <c r="I39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I39" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J39" s="12">
+        <v>284</v>
+      </c>
+      <c r="K39" t="s">
+        <v>581</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="M39">
+        <v>36.043700000000001</v>
+      </c>
+      <c r="N39" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>-3.6015000000000001</v>
+      </c>
+      <c r="P39" s="11">
+        <f t="shared" si="5"/>
+        <v>3.6015000000000001</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="U39" t="s">
+        <v>581</v>
+      </c>
+      <c r="V39">
+        <v>36.043700000000001</v>
+      </c>
+      <c r="W39">
+        <v>-3.6015000000000001</v>
+      </c>
+      <c r="X39" s="8">
+        <f>VLOOKUP(Q39, U62:V69, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>47</v>
       </c>
-      <c r="I40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I40" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="J40" s="12">
+        <v>288</v>
+      </c>
+      <c r="K40" t="s">
+        <v>582</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="M40">
+        <v>37.700600000000001</v>
+      </c>
+      <c r="N40" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>-1.9841</v>
+      </c>
+      <c r="P40" s="11">
+        <f t="shared" si="5"/>
+        <v>1.9841</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R40">
+        <v>2</v>
+      </c>
+      <c r="U40" t="s">
+        <v>582</v>
+      </c>
+      <c r="V40">
+        <v>37.700600000000001</v>
+      </c>
+      <c r="W40">
+        <v>-1.9841</v>
+      </c>
+      <c r="X40" s="8">
+        <f>VLOOKUP(Q40, U62:V69, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>301</v>
       </c>
-      <c r="I41" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I41" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="J41" s="12">
+        <v>598</v>
+      </c>
+      <c r="K41" t="s">
+        <v>583</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="M41">
+        <v>37.322333333333333</v>
+      </c>
+      <c r="N41" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>-5.9015388888888891</v>
+      </c>
+      <c r="P41" s="11">
+        <f t="shared" si="5"/>
+        <v>5.9015388888888891</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="U41" t="s">
+        <v>583</v>
+      </c>
+      <c r="V41">
+        <v>37.322333333333333</v>
+      </c>
+      <c r="W41">
+        <v>-5.9015388888888891</v>
+      </c>
+      <c r="X41" s="8">
+        <f>VLOOKUP(Q41, U62:V69, 2, FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Y41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>398</v>
       </c>
-      <c r="I42" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I42" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="J42" s="12">
+        <v>297</v>
+      </c>
+      <c r="K42" t="s">
+        <v>584</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="M42">
+        <v>39.971400000000003</v>
+      </c>
+      <c r="N42" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>-1.5827</v>
+      </c>
+      <c r="P42" s="11">
+        <f t="shared" si="5"/>
+        <v>1.5827</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R42">
+        <v>2</v>
+      </c>
+      <c r="U42" t="s">
+        <v>584</v>
+      </c>
+      <c r="V42">
+        <v>39.971400000000003</v>
+      </c>
+      <c r="W42">
+        <v>-1.5827</v>
+      </c>
+      <c r="X42" s="8">
+        <f>VLOOKUP(Q42, U62:V69, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>134</v>
       </c>
-      <c r="I43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I43" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="J43" s="12">
+        <v>11</v>
+      </c>
+      <c r="K43" t="s">
+        <v>565</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="M43" s="7">
+        <v>2.068835</v>
+      </c>
+      <c r="N43" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O43" s="7">
+        <v>-55.065944000000002</v>
+      </c>
+      <c r="P43" s="11">
+        <f t="shared" si="5"/>
+        <v>55.065944000000002</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="U43" t="s">
+        <v>565</v>
+      </c>
+      <c r="V43" s="7">
+        <v>2.068835</v>
+      </c>
+      <c r="W43" s="7">
+        <v>-55.065944000000002</v>
+      </c>
+      <c r="X43" s="8">
+        <f>VLOOKUP(Q43, U62:V69, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>326</v>
       </c>
-      <c r="I44" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I44" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="J44" s="12">
+        <v>16</v>
+      </c>
+      <c r="K44" t="s">
+        <v>566</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="M44" s="7">
+        <v>2.9713609999999999</v>
+      </c>
+      <c r="N44" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O44" s="7">
+        <v>-46.239435</v>
+      </c>
+      <c r="P44" s="11">
+        <f t="shared" si="5"/>
+        <v>46.239435</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="U44" t="s">
+        <v>566</v>
+      </c>
+      <c r="V44" s="7">
+        <v>2.9713609999999999</v>
+      </c>
+      <c r="W44" s="7">
+        <v>-46.239435</v>
+      </c>
+      <c r="X44" s="8">
+        <f>VLOOKUP(Q44, U62:V69, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>287</v>
       </c>
-      <c r="I45" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I45" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="J45" s="12">
+        <v>742</v>
+      </c>
+      <c r="K45" t="s">
+        <v>566</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="M45">
+        <v>2.9713500000000002</v>
+      </c>
+      <c r="N45" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O45" s="7">
+        <v>-46.239420000000003</v>
+      </c>
+      <c r="P45" s="11">
+        <f t="shared" si="5"/>
+        <v>46.239420000000003</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="U45" t="s">
+        <v>566</v>
+      </c>
+      <c r="V45">
+        <v>2.9713500000000002</v>
+      </c>
+      <c r="W45" s="7">
+        <v>-46.239420000000003</v>
+      </c>
+      <c r="X45" s="8">
+        <f>VLOOKUP(Q45, U62:V69, 2, FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Y45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>99</v>
       </c>
-      <c r="I46" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I46" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="J46" s="12">
+        <v>25</v>
+      </c>
+      <c r="K46" t="s">
+        <v>571</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="M46" s="7">
+        <v>5.4518310000000003</v>
+      </c>
+      <c r="N46" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O46" s="7">
+        <v>-50.474888</v>
+      </c>
+      <c r="P46" s="11">
+        <f t="shared" si="5"/>
+        <v>50.474888</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="U46" t="s">
+        <v>571</v>
+      </c>
+      <c r="V46" s="7">
+        <v>5.4518310000000003</v>
+      </c>
+      <c r="W46" s="7">
+        <v>-50.474888</v>
+      </c>
+      <c r="X46" s="8">
+        <f>VLOOKUP(Q46, U62:V69, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>152</v>
       </c>
-      <c r="I47" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I47" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="J47" s="12">
+        <v>22</v>
+      </c>
+      <c r="K47" t="s">
+        <v>570</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="M47" s="7">
+        <v>5.3912000000000004</v>
+      </c>
+      <c r="N47" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O47" s="7">
+        <v>-40.667900000000003</v>
+      </c>
+      <c r="P47" s="11">
+        <f t="shared" si="5"/>
+        <v>40.667900000000003</v>
+      </c>
+      <c r="Q47" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="U47" t="s">
+        <v>570</v>
+      </c>
+      <c r="V47" s="7">
+        <v>5.3912000000000004</v>
+      </c>
+      <c r="W47" s="7">
+        <v>-40.667900000000003</v>
+      </c>
+      <c r="X47" s="8">
+        <f>VLOOKUP(Q47, U62:V69, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>309</v>
       </c>
-      <c r="I48" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I48" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="J48" s="12">
+        <v>38</v>
+      </c>
+      <c r="K48" t="s">
+        <v>587</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="M48" s="7">
+        <v>8.3505789999999998</v>
+      </c>
+      <c r="N48" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O48" s="7">
+        <v>-54.760089999999998</v>
+      </c>
+      <c r="P48" s="11">
+        <f t="shared" si="5"/>
+        <v>54.760089999999998</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="U48" t="s">
+        <v>587</v>
+      </c>
+      <c r="V48" s="7">
+        <v>8.3505789999999998</v>
+      </c>
+      <c r="W48" s="7">
+        <v>-54.760089999999998</v>
+      </c>
+      <c r="X48" s="8">
+        <f>VLOOKUP(Q48, U62:V69, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>401</v>
       </c>
-      <c r="I49" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I49" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="J49" s="12">
+        <v>265</v>
+      </c>
+      <c r="K49" t="s">
+        <v>574</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="M49">
+        <v>8.6173000000000002</v>
+      </c>
+      <c r="N49" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>2.4226999999999999</v>
+      </c>
+      <c r="P49" s="11">
+        <f t="shared" si="5"/>
+        <v>2.4226999999999999</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="U49" t="s">
+        <v>574</v>
+      </c>
+      <c r="V49">
+        <v>8.6173000000000002</v>
+      </c>
+      <c r="W49">
+        <v>2.4226999999999999</v>
+      </c>
+      <c r="X49" s="8">
+        <f>VLOOKUP(Q49, U62:V69, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>93</v>
       </c>
-      <c r="I50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I50" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="J50" s="12">
+        <v>42</v>
+      </c>
+      <c r="K50" t="s">
+        <v>588</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="M50" s="7">
+        <v>8.8440359999999991</v>
+      </c>
+      <c r="N50" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O50" s="7">
+        <v>-51.509864</v>
+      </c>
+      <c r="P50" s="11">
+        <f t="shared" si="5"/>
+        <v>51.509864</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="U50" t="s">
+        <v>588</v>
+      </c>
+      <c r="V50" s="7">
+        <v>8.8440359999999991</v>
+      </c>
+      <c r="W50" s="7">
+        <v>-51.509864</v>
+      </c>
+      <c r="X50" s="8">
+        <f>VLOOKUP(Q50, U62:V69, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>299</v>
       </c>
-      <c r="I51" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I51" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J51" s="12">
+        <v>266</v>
+      </c>
+      <c r="K51" t="s">
+        <v>575</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="M51">
+        <v>16.788599999999999</v>
+      </c>
+      <c r="N51" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>1.2918000000000001</v>
+      </c>
+      <c r="P51" s="11">
+        <f t="shared" si="5"/>
+        <v>1.2918000000000001</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="U51" t="s">
+        <v>575</v>
+      </c>
+      <c r="V51">
+        <v>16.788599999999999</v>
+      </c>
+      <c r="W51">
+        <v>1.2918000000000001</v>
+      </c>
+      <c r="X51" s="8">
+        <f>VLOOKUP(Q51, U62:V69, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>124</v>
       </c>
-      <c r="I52" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I52" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="J52" s="12">
+        <v>268</v>
+      </c>
+      <c r="K52" t="s">
+        <v>576</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="M52">
+        <v>29.226500000000001</v>
+      </c>
+      <c r="N52" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>-4.4070999999999998</v>
+      </c>
+      <c r="P52" s="11">
+        <f t="shared" si="5"/>
+        <v>4.4070999999999998</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="U52" t="s">
+        <v>576</v>
+      </c>
+      <c r="V52">
+        <v>29.226500000000001</v>
+      </c>
+      <c r="W52">
+        <v>-4.4070999999999998</v>
+      </c>
+      <c r="X52" s="8">
+        <f>VLOOKUP(Q52, U62:V69, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>300</v>
       </c>
-      <c r="I53" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I53" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="J53" s="12">
+        <v>549</v>
+      </c>
+      <c r="K53" t="s">
+        <v>598</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="M53">
+        <v>30.958249999999996</v>
+      </c>
+      <c r="N53" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>-9.714863888888889</v>
+      </c>
+      <c r="P53" s="11">
+        <f t="shared" si="5"/>
+        <v>9.714863888888889</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="U53" t="s">
+        <v>598</v>
+      </c>
+      <c r="V53">
+        <v>30.958249999999996</v>
+      </c>
+      <c r="W53">
+        <v>-9.714863888888889</v>
+      </c>
+      <c r="X53" s="8">
+        <f>VLOOKUP(Q53, U62:V69, 2, FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Y53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>262</v>
       </c>
-      <c r="I54" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I54" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="J54" s="12">
+        <v>561</v>
+      </c>
+      <c r="K54" t="s">
+        <v>599</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="M54">
+        <v>32.827041666666666</v>
+      </c>
+      <c r="N54" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>-4.4581111111111111</v>
+      </c>
+      <c r="P54" s="11">
+        <f t="shared" si="5"/>
+        <v>4.4581111111111111</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="U54" t="s">
+        <v>599</v>
+      </c>
+      <c r="V54">
+        <v>32.827041666666666</v>
+      </c>
+      <c r="W54">
+        <v>-4.4581111111111111</v>
+      </c>
+      <c r="X54" s="8">
+        <f>VLOOKUP(Q54, U62:V69, 2, FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Y54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>193</v>
       </c>
-      <c r="I55" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I55" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="J55" s="12">
+        <v>579</v>
+      </c>
+      <c r="K55" t="s">
+        <v>603</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="M55">
+        <v>35.179625000000001</v>
+      </c>
+      <c r="N55" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>-10.871236111111111</v>
+      </c>
+      <c r="P55" s="11">
+        <f t="shared" si="5"/>
+        <v>10.871236111111111</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="U55" t="s">
+        <v>603</v>
+      </c>
+      <c r="V55">
+        <v>35.179625000000001</v>
+      </c>
+      <c r="W55">
+        <v>-10.871236111111111</v>
+      </c>
+      <c r="X55" s="8">
+        <f>VLOOKUP(Q55, U62:V69, 2, FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>361</v>
       </c>
-      <c r="I56" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I56" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="J56" s="12">
+        <v>283</v>
+      </c>
+      <c r="K56" t="s">
+        <v>581</v>
+      </c>
+      <c r="L56" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="M56">
+        <v>36.003999999999998</v>
+      </c>
+      <c r="N56" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>-3.7738</v>
+      </c>
+      <c r="P56" s="11">
+        <f t="shared" si="5"/>
+        <v>3.7738</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="U56" t="s">
+        <v>581</v>
+      </c>
+      <c r="V56">
+        <v>36.003999999999998</v>
+      </c>
+      <c r="W56">
+        <v>-3.7738</v>
+      </c>
+      <c r="X56" s="8">
+        <f>VLOOKUP(Q56, U62:V69, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>382</v>
       </c>
-      <c r="I57" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I57" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="J57" s="12">
+        <v>442</v>
+      </c>
+      <c r="K57" t="s">
+        <v>590</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="M57">
+        <v>333.04759999999999</v>
+      </c>
+      <c r="N57" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>-0.1389</v>
+      </c>
+      <c r="P57" s="11">
+        <f t="shared" si="5"/>
+        <v>0.1389</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="U57" t="s">
+        <v>590</v>
+      </c>
+      <c r="V57">
+        <v>333.04759999999999</v>
+      </c>
+      <c r="W57">
+        <v>-0.1389</v>
+      </c>
+      <c r="X57" s="8">
+        <f>VLOOKUP(Q57, U62:V69, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>403</v>
       </c>
-      <c r="I58" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I58" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="J58" s="12">
+        <v>448</v>
+      </c>
+      <c r="K58" t="s">
+        <v>591</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="M58">
+        <v>333.45499999999998</v>
+      </c>
+      <c r="N58" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="P58" s="11">
+        <f t="shared" si="5"/>
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="U58" t="s">
+        <v>591</v>
+      </c>
+      <c r="V58">
+        <v>333.45499999999998</v>
+      </c>
+      <c r="W58">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="X58" s="8">
+        <f>VLOOKUP(Q58, U62:V69, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>184</v>
       </c>
-      <c r="I59" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I59" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="J59" s="12">
+        <v>449</v>
+      </c>
+      <c r="K59" t="s">
+        <v>592</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="M59">
+        <v>333.57870000000003</v>
+      </c>
+      <c r="N59" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>1.1772</v>
+      </c>
+      <c r="P59" s="11">
+        <f t="shared" si="5"/>
+        <v>1.1772</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="U59" t="s">
+        <v>592</v>
+      </c>
+      <c r="V59">
+        <v>333.57870000000003</v>
+      </c>
+      <c r="W59">
+        <v>1.1772</v>
+      </c>
+      <c r="X59" s="8">
+        <f>VLOOKUP(Q59, U62:V69, 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>238</v>
       </c>
-      <c r="I60" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>82</v>
       </c>
-      <c r="I61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="Q61" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="R61">
+        <f>COUNTIF(R3:R59, 1)</f>
+        <v>17</v>
+      </c>
+      <c r="U61" t="s">
+        <v>450</v>
+      </c>
+      <c r="V61" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>79</v>
       </c>
-      <c r="I62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="Q62" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="R62">
+        <f>COUNTIF(R3:R59, 2)</f>
+        <v>9</v>
+      </c>
+      <c r="U62" t="s">
+        <v>455</v>
+      </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>368</v>
       </c>
-      <c r="I63" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q63" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="R63">
+        <f>COUNTIF(R3:R59, 3)</f>
+        <v>3</v>
+      </c>
+      <c r="U63" t="s">
+        <v>453</v>
+      </c>
+      <c r="V63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q64" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="R64">
+        <f>COUNTIF(R3:R59, 4)</f>
+        <v>10</v>
+      </c>
+      <c r="U64" t="s">
+        <v>458</v>
+      </c>
+      <c r="V64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f>COUNTA(A3:A63)</f>
         <v>61</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="Q65" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="R65">
+        <f>COUNTIF(R3:R59, 5)</f>
+        <v>18</v>
+      </c>
+      <c r="U65" t="s">
+        <v>474</v>
+      </c>
+      <c r="V65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="Q66" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="R66">
+        <f>SUM(R61:R65)</f>
+        <v>57</v>
+      </c>
+      <c r="U66" t="s">
+        <v>486</v>
+      </c>
+      <c r="V66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U67" t="s">
+        <v>461</v>
+      </c>
+      <c r="V67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U68" t="s">
+        <v>488</v>
+      </c>
+      <c r="V68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U69" t="s">
+        <v>481</v>
+      </c>
+      <c r="V69">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I3:R59">
+    <sortCondition descending="1" ref="R3:R59"/>
+    <sortCondition ref="K3:K59"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
